--- a/biology/Botanique/Eugenia_dusenii/Eugenia_dusenii.xlsx
+++ b/biology/Botanique/Eugenia_dusenii/Eugenia_dusenii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eugenia dusenii Engl. est une espèce d'arbustes du genre Eugenia, de la famille des Myrtaceae, endémique du Cameroun. 
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique dusenii rend hommage au botaniste suédois Per Karl Hjalmar Dusén qui explora le Cameroun[2] et y récolta le premier spécimen.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique dusenii rend hommage au botaniste suédois Per Karl Hjalmar Dusén qui explora le Cameroun et y récolta le premier spécimen.
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adolf Engler a décrit l'espèce en 1899[3]. 
-Cette plante est un petit arbuste à fleurs blanches[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adolf Engler a décrit l'espèce en 1899. 
+Cette plante est un petit arbuste à fleurs blanches.
 Il mesurerait environ 1,5 m de haut.
-Cette espèce figure dans l'index international des noms des plantes (IPNI)[5]. 
+Cette espèce figure dans l'index international des noms des plantes (IPNI). 
 </t>
         </is>
       </c>
@@ -576,11 +592,13 @@
           <t>Habitat et distribution géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La présence de cet arbuste rhéophyte est attestée principalement sur les berges rocheuses des chutes de la rivière Ndian, près de Mundemba, où il est submergé pendant la saison des pluies[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La présence de cet arbuste rhéophyte est attestée principalement sur les berges rocheuses des chutes de la rivière Ndian, près de Mundemba, où il est submergé pendant la saison des pluies.
 Relativement rare, cette espèce est endémique du sud-ouest du Cameroun. 
-En particulier, un spécimen, conservé par l'Herbier national du Cameroun, a été récolté au Cameroun, sur un pont de la Mana (ou Ndian), à 100 m d'altitude[7], aux abords du parc national de Korup
+En particulier, un spécimen, conservé par l'Herbier national du Cameroun, a été récolté au Cameroun, sur un pont de la Mana (ou Ndian), à 100 m d'altitude, aux abords du parc national de Korup
 </t>
         </is>
       </c>
